--- a/xlsx/反托拉斯_intext.xlsx
+++ b/xlsx/反托拉斯_intext.xlsx
@@ -35,49 +35,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BC%9A</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85%E6%9A%A8%E8%B2%BF%E6%98%93%E7%B8%BD%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>關稅暨貿易總協定</t>
+    <t>关税暨贸易总协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%9E%E5%90%88</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A0%E5%A5%AA%E6%80%A7%E8%A8%82%E5%83%B9</t>
   </si>
   <si>
-    <t>掠奪性訂價</t>
+    <t>掠夺性订价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E5%94%AE</t>
@@ -143,25 +143,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%B5%E8%88%87%E6%94%B6%E8%B3%BC</t>
   </si>
   <si>
-    <t>合併與收購</t>
+    <t>合并与收购</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>合資企業</t>
+    <t>合资企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>競爭法的歷史</t>
+    <t>竞争法的历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%85%8B%E9%87%8C%E5%85%88</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E8%AB%BE_(%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B)</t>
   </si>
   <si>
-    <t>芝諾 (羅馬帝國)</t>
+    <t>芝诺 (罗马帝国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A3%AB%E4%B8%81%E5%B0%BC%E4%B8%80%E4%B8%96</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E8%80%85%E6%84%9B%E5%BE%B7%E8%8F%AF</t>
   </si>
   <si>
-    <t>懺悔者愛德華</t>
+    <t>忏悔者爱德华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B0%E9%87%91</t>
   </si>
   <si>
-    <t>罰金</t>
+    <t>罚金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E4%B8%89%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>愛德華三世 (英格蘭)</t>
+    <t>爱德华三世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%8B%E6%B3%95</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
+    <t>波希米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8C%A8%E6%8B%89%E5%A4%AB%E4%BA%8C%E4%B8%96</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%BA%94%E4%B8%96_(%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD)</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>同業公會</t>
+    <t>同业公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E8%87%AA%E7%84%B6%E4%BA%BA</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9</t>
   </si>
   <si>
-    <t>專利</t>
+    <t>专利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>伊麗莎白一世</t>
+    <t>伊丽莎白一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%BA%A7%E6%B3%95%E5%BA%AD</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8D%A0</t>
   </si>
   <si>
-    <t>獨占</t>
+    <t>独占</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E5%85%AD%E4%B8%96%E5%8F%8A%E4%B8%80%E4%B8%96</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>專利權</t>
+    <t>专利权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>查理一世 (英格蘭)</t>
+    <t>查理一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%E4%BA%8C%E4%B8%96</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>亞當·史密斯</t>
+    <t>亚当·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%8C%A0</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%88%8D%E6%9B%BC</t>
   </si>
   <si>
-    <t>約翰·舍曼</t>
+    <t>约翰·舍曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E7%9F%B3%E6%B2%B9</t>
   </si>
   <si>
-    <t>標準石油</t>
+    <t>标准石油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E6%B2%B9</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B%E7%A4%A6</t>
   </si>
   <si>
-    <t>鉛礦</t>
+    <t>铅矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A3%AB%E5%BF%8C</t>
@@ -431,25 +431,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B1%80%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>賽局理論</t>
+    <t>赛局理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -461,25 +461,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%85%A4%E9%92%A2%E5%85%B1%E5%90%8C%E4%BD%93</t>
@@ -491,43 +491,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%A4%A6</t>
   </si>
   <si>
-    <t>煤礦</t>
+    <t>煤矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%A4%A6</t>
   </si>
   <si>
-    <t>鐵礦</t>
+    <t>铁矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>羅馬條約</t>
+    <t>罗马条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>里斯本條約</t>
+    <t>里斯本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>比例原則</t>
+    <t>比例原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲理事會</t>
+    <t>欧洲理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E6%9C%BA%E6%9E%84</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%81%BD%E5%AE%B3</t>
   </si>
   <si>
-    <t>自然災害</t>
+    <t>自然灾害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%94%BF%E5%BA%9C</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%85%AC%E5%B9%B3%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國公平交易委員會</t>
+    <t>中华民国公平交易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E4%BA%8B%E5%8B%99%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>競爭事務委員會</t>
+    <t>竞争事务委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WTO</t>
@@ -587,25 +587,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F%E5%9F%B7%E5%A7%94%E6%9C%83</t>
   </si>
   <si>
-    <t>歐盟執委會</t>
+    <t>欧盟执委会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%9A%AE%E6%9B%B8</t>
   </si>
   <si>
-    <t>綠皮書</t>
+    <t>绿皮书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%93%88%E5%9B%9E%E5%90%88%E8%B2%BF%E6%98%93%E8%AB%87%E5%88%A4</t>
   </si>
   <si>
-    <t>杜哈回合貿易談判</t>
+    <t>杜哈回合贸易谈判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E9%83%BD%E8%8F%AF%C2%B7%E5%BD%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·史都華·彌爾</t>
+    <t>约翰·史都华·弥尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
@@ -653,25 +653,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>論自由</t>
+    <t>论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%9C%E5%90%88%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典綜合學派</t>
+    <t>新古典综合学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
+    <t>社会福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%9B%B7%E6%89%98%E6%95%88%E7%8E%87</t>
@@ -689,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>邊際主義</t>
+    <t>边际主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E4%BC%A6%E7%90%86</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E5%8F%AF%E8%83%BD%E6%80%A7%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>生產可能性曲線</t>
+    <t>生产可能性曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -731,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E4%BE%BF%E8%BB%8A%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>搭便車問題</t>
+    <t>搭便车问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E5%A4%B1%E7%81%B5</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇格蘭啟蒙運動</t>
+    <t>苏格兰启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Windows_Media_Player</t>
@@ -797,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A0%B8</t>
   </si>
   <si>
-    <t>結核</t>
+    <t>结核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥學派</t>
+    <t>芝加哥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC%E6%AD%A7%E8%A7%86</t>
@@ -815,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%AC%8A</t>
   </si>
   <si>
-    <t>股權</t>
+    <t>股权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%8D%A0</t>
@@ -839,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>版權</t>
+    <t>版权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
   </si>
   <si>
-    <t>商標</t>
+    <t>商标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E7%A7%98%E5%AF%86</t>
@@ -857,19 +857,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>智慧財產權</t>
+    <t>智慧财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E5%A4%A7%E7%8D%8E%E9%9B%A3%E9%A1%8C</t>
   </si>
   <si>
-    <t>千禧年大獎難題</t>
+    <t>千禧年大奖难题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E4%BF%9D%E6%8A%A4</t>
@@ -893,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%85%AC%E5%B9%B3%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>不公平競爭</t>
+    <t>不公平竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E6%9A%A8%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作暨發展組織</t>
+    <t>经济合作暨发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92</t>
   </si>
   <si>
-    <t>凱撒</t>
+    <t>凯撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/American_Economic_Review</t>
@@ -935,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%AF%87%E6%96%AF</t>
   </si>
   <si>
-    <t>羅納德·寇斯</t>
+    <t>罗纳德·寇斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Title_15_of_the_United_States_Code</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7A%C2%B7%E6%B3%A2%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>理察·A·波斯納</t>
+    <t>理察·A·波斯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Adam_Smith</t>
@@ -1007,19 +1007,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -1061,25 +1061,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -1211,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -1253,19 +1253,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -1325,19 +1325,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -1439,25 +1439,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -1469,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -1529,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -1553,13 +1553,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -1571,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -1625,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -1649,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -1661,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -1685,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -1703,25 +1703,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -1739,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -1751,25 +1751,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1829,19 +1829,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -1865,19 +1865,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1901,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1919,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -1931,13 +1931,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
